--- a/data/region/spread/_region_SPREAD_out_data.xlsx
+++ b/data/region/spread/_region_SPREAD_out_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J250"/>
+  <dimension ref="A1:J286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C66" t="n">
         <v>3</v>
@@ -1823,16 +1823,16 @@
         <v>2</v>
       </c>
       <c r="F66" t="n">
+        <v>8</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+      <c r="I66" t="n">
         <v>6</v>
-      </c>
-      <c r="G66" t="n">
-        <v>4</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
       </c>
       <c r="J66" t="n">
         <v>5</v>
@@ -1919,7 +1919,7 @@
         <v>16</v>
       </c>
       <c r="D69" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -1928,10 +1928,10 @@
         <v>15</v>
       </c>
       <c r="G69" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I69" t="n">
         <v>17</v>
@@ -2095,7 +2095,7 @@
         <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G74" t="n">
         <v>53</v>
@@ -2299,10 +2299,10 @@
         <v>23</v>
       </c>
       <c r="F80" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G80" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H80" t="n">
         <v>42</v>
@@ -2324,7 +2324,7 @@
         <v>99</v>
       </c>
       <c r="C81" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D81" t="n">
         <v>437</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C82" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D82" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E82" t="n">
         <v>58</v>
@@ -2376,7 +2376,7 @@
         <v>62</v>
       </c>
       <c r="I82" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J82" t="n">
         <v>145</v>
@@ -2395,13 +2395,13 @@
         <v>165</v>
       </c>
       <c r="D83" t="n">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E83" t="n">
         <v>76</v>
       </c>
       <c r="F83" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G83" t="n">
         <v>235</v>
@@ -2435,7 +2435,7 @@
         <v>76</v>
       </c>
       <c r="F84" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G84" t="n">
         <v>305</v>
@@ -2460,22 +2460,22 @@
         <v>154</v>
       </c>
       <c r="C85" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D85" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E85" t="n">
         <v>97</v>
       </c>
       <c r="F85" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G85" t="n">
         <v>320</v>
       </c>
       <c r="H85" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I85" t="n">
         <v>313</v>
@@ -2494,22 +2494,22 @@
         <v>137</v>
       </c>
       <c r="C86" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" t="n">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E86" t="n">
         <v>102</v>
       </c>
       <c r="F86" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G86" t="n">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H86" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I86" t="n">
         <v>279</v>
@@ -2593,19 +2593,19 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C89" t="n">
         <v>300</v>
       </c>
       <c r="D89" t="n">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E89" t="n">
         <v>176</v>
       </c>
       <c r="F89" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G89" t="n">
         <v>476</v>
@@ -2633,22 +2633,22 @@
         <v>322</v>
       </c>
       <c r="D90" t="n">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E90" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F90" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G90" t="n">
         <v>470</v>
       </c>
       <c r="H90" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I90" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J90" t="n">
         <v>320</v>
@@ -2673,10 +2673,10 @@
         <v>307</v>
       </c>
       <c r="F91" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="G91" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H91" t="n">
         <v>183</v>
@@ -2685,7 +2685,7 @@
         <v>410</v>
       </c>
       <c r="J91" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92">
@@ -2707,10 +2707,10 @@
         <v>219</v>
       </c>
       <c r="F92" t="n">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G92" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H92" t="n">
         <v>183</v>
@@ -2719,7 +2719,7 @@
         <v>447</v>
       </c>
       <c r="J92" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93">
@@ -2735,22 +2735,22 @@
         <v>352</v>
       </c>
       <c r="D93" t="n">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E93" t="n">
         <v>261</v>
       </c>
       <c r="F93" t="n">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G93" t="n">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H93" t="n">
         <v>187</v>
       </c>
       <c r="I93" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J93" t="n">
         <v>293</v>
@@ -2769,16 +2769,16 @@
         <v>269</v>
       </c>
       <c r="D94" t="n">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E94" t="n">
         <v>254</v>
       </c>
       <c r="F94" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G94" t="n">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H94" t="n">
         <v>174</v>
@@ -2803,7 +2803,7 @@
         <v>281</v>
       </c>
       <c r="D95" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E95" t="n">
         <v>221</v>
@@ -2837,16 +2837,16 @@
         <v>385</v>
       </c>
       <c r="D96" t="n">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E96" t="n">
         <v>375</v>
       </c>
       <c r="F96" t="n">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G96" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H96" t="n">
         <v>186</v>
@@ -2902,19 +2902,19 @@
         <v>188</v>
       </c>
       <c r="C98" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D98" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E98" t="n">
         <v>292</v>
       </c>
       <c r="F98" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G98" t="n">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H98" t="n">
         <v>236</v>
@@ -2936,10 +2936,10 @@
         <v>233</v>
       </c>
       <c r="C99" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D99" t="n">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E99" t="n">
         <v>314</v>
@@ -2948,7 +2948,7 @@
         <v>804</v>
       </c>
       <c r="G99" t="n">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H99" t="n">
         <v>246</v>
@@ -2957,7 +2957,7 @@
         <v>345</v>
       </c>
       <c r="J99" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100">
@@ -2967,22 +2967,22 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C100" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D100" t="n">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="E100" t="n">
         <v>245</v>
       </c>
       <c r="F100" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G100" t="n">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H100" t="n">
         <v>234</v>
@@ -3007,16 +3007,16 @@
         <v>271</v>
       </c>
       <c r="D101" t="n">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E101" t="n">
         <v>267</v>
       </c>
       <c r="F101" t="n">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G101" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H101" t="n">
         <v>173</v>
@@ -3038,10 +3038,10 @@
         <v>214</v>
       </c>
       <c r="C102" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D102" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E102" t="n">
         <v>201</v>
@@ -3050,7 +3050,7 @@
         <v>488</v>
       </c>
       <c r="G102" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H102" t="n">
         <v>178</v>
@@ -3072,10 +3072,10 @@
         <v>172</v>
       </c>
       <c r="C103" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D103" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E103" t="n">
         <v>232</v>
@@ -3084,13 +3084,13 @@
         <v>609</v>
       </c>
       <c r="G103" t="n">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H103" t="n">
         <v>194</v>
       </c>
       <c r="I103" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J103" t="n">
         <v>326</v>
@@ -3109,25 +3109,25 @@
         <v>289</v>
       </c>
       <c r="D104" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E104" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F104" t="n">
         <v>633</v>
       </c>
       <c r="G104" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H104" t="n">
         <v>185</v>
       </c>
       <c r="I104" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J104" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105">
@@ -3143,16 +3143,16 @@
         <v>296</v>
       </c>
       <c r="D105" t="n">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E105" t="n">
         <v>284</v>
       </c>
       <c r="F105" t="n">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G105" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H105" t="n">
         <v>211</v>
@@ -3161,7 +3161,7 @@
         <v>387</v>
       </c>
       <c r="J105" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="106">
@@ -3174,16 +3174,16 @@
         <v>267</v>
       </c>
       <c r="C106" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D106" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E106" t="n">
         <v>295</v>
       </c>
       <c r="F106" t="n">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G106" t="n">
         <v>655</v>
@@ -3205,22 +3205,22 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C107" t="n">
         <v>365</v>
       </c>
       <c r="D107" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E107" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F107" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G107" t="n">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H107" t="n">
         <v>240</v>
@@ -3245,16 +3245,16 @@
         <v>329</v>
       </c>
       <c r="D108" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E108" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F108" t="n">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="G108" t="n">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H108" t="n">
         <v>168</v>
@@ -3285,13 +3285,13 @@
         <v>276</v>
       </c>
       <c r="F109" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G109" t="n">
         <v>414</v>
       </c>
       <c r="H109" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I109" t="n">
         <v>340</v>
@@ -3310,7 +3310,7 @@
         <v>187</v>
       </c>
       <c r="C110" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D110" t="n">
         <v>434</v>
@@ -3325,7 +3325,7 @@
         <v>489</v>
       </c>
       <c r="H110" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I110" t="n">
         <v>401</v>
@@ -3344,7 +3344,7 @@
         <v>219</v>
       </c>
       <c r="C111" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D111" t="n">
         <v>466</v>
@@ -3356,13 +3356,13 @@
         <v>692</v>
       </c>
       <c r="G111" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H111" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I111" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J111" t="n">
         <v>350</v>
@@ -3387,10 +3387,10 @@
         <v>361</v>
       </c>
       <c r="F112" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G112" t="n">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H112" t="n">
         <v>286</v>
@@ -3409,19 +3409,19 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C113" t="n">
         <v>475</v>
       </c>
       <c r="D113" t="n">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E113" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F113" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G113" t="n">
         <v>684</v>
@@ -3430,7 +3430,7 @@
         <v>281</v>
       </c>
       <c r="I113" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J113" t="n">
         <v>449</v>
@@ -3446,7 +3446,7 @@
         <v>298</v>
       </c>
       <c r="C114" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D114" t="n">
         <v>378</v>
@@ -3464,7 +3464,7 @@
         <v>250</v>
       </c>
       <c r="I114" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J114" t="n">
         <v>592</v>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C115" t="n">
         <v>377</v>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C116" t="n">
         <v>358</v>
@@ -3551,10 +3551,10 @@
         <v>511</v>
       </c>
       <c r="D117" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E117" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F117" t="n">
         <v>623</v>
@@ -3566,10 +3566,10 @@
         <v>321</v>
       </c>
       <c r="I117" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J117" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="118">
@@ -3585,25 +3585,25 @@
         <v>464</v>
       </c>
       <c r="D118" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E118" t="n">
         <v>360</v>
       </c>
       <c r="F118" t="n">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G118" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H118" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I118" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J118" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="119">
@@ -3616,19 +3616,19 @@
         <v>378</v>
       </c>
       <c r="C119" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D119" t="n">
         <v>431</v>
       </c>
       <c r="E119" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F119" t="n">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G119" t="n">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H119" t="n">
         <v>348</v>
@@ -3637,7 +3637,7 @@
         <v>441</v>
       </c>
       <c r="J119" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="120">
@@ -3653,13 +3653,13 @@
         <v>424</v>
       </c>
       <c r="D120" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E120" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F120" t="n">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G120" t="n">
         <v>650</v>
@@ -3668,7 +3668,7 @@
         <v>244</v>
       </c>
       <c r="I120" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J120" t="n">
         <v>579</v>
@@ -3684,7 +3684,7 @@
         <v>294</v>
       </c>
       <c r="C121" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D121" t="n">
         <v>356</v>
@@ -3693,19 +3693,19 @@
         <v>273</v>
       </c>
       <c r="F121" t="n">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G121" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H121" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I121" t="n">
         <v>469</v>
       </c>
       <c r="J121" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="122">
@@ -3721,16 +3721,16 @@
         <v>302</v>
       </c>
       <c r="D122" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E122" t="n">
         <v>183</v>
       </c>
       <c r="F122" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G122" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H122" t="n">
         <v>208</v>
@@ -3755,25 +3755,25 @@
         <v>317</v>
       </c>
       <c r="D123" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E123" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F123" t="n">
         <v>492</v>
       </c>
       <c r="G123" t="n">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H123" t="n">
         <v>176</v>
       </c>
       <c r="I123" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J123" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="124">
@@ -3786,22 +3786,22 @@
         <v>235</v>
       </c>
       <c r="C124" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D124" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E124" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F124" t="n">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G124" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H124" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I124" t="n">
         <v>235</v>
@@ -3823,22 +3823,22 @@
         <v>332</v>
       </c>
       <c r="D125" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E125" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F125" t="n">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G125" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H125" t="n">
         <v>173</v>
       </c>
       <c r="I125" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J125" t="n">
         <v>440</v>
@@ -3854,7 +3854,7 @@
         <v>334</v>
       </c>
       <c r="C126" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D126" t="n">
         <v>269</v>
@@ -3863,7 +3863,7 @@
         <v>243</v>
       </c>
       <c r="F126" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G126" t="n">
         <v>444</v>
@@ -3897,16 +3897,16 @@
         <v>199</v>
       </c>
       <c r="F127" t="n">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G127" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H127" t="n">
         <v>180</v>
       </c>
       <c r="I127" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J127" t="n">
         <v>458</v>
@@ -3919,22 +3919,22 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C128" t="n">
         <v>229</v>
       </c>
       <c r="D128" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E128" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F128" t="n">
         <v>483</v>
       </c>
       <c r="G128" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H128" t="n">
         <v>178</v>
@@ -3959,19 +3959,19 @@
         <v>203</v>
       </c>
       <c r="D129" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E129" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F129" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G129" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H129" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I129" t="n">
         <v>163</v>
@@ -3987,25 +3987,25 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C130" t="n">
         <v>208</v>
       </c>
       <c r="D130" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E130" t="n">
         <v>150</v>
       </c>
       <c r="F130" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G130" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H130" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I130" t="n">
         <v>217</v>
@@ -4024,13 +4024,13 @@
         <v>308</v>
       </c>
       <c r="C131" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D131" t="n">
         <v>159</v>
       </c>
       <c r="E131" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F131" t="n">
         <v>529</v>
@@ -4042,7 +4042,7 @@
         <v>255</v>
       </c>
       <c r="I131" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J131" t="n">
         <v>426</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C132" t="n">
         <v>315</v>
       </c>
       <c r="D132" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E132" t="n">
         <v>220</v>
@@ -4070,16 +4070,16 @@
         <v>548</v>
       </c>
       <c r="G132" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H132" t="n">
         <v>177</v>
       </c>
       <c r="I132" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J132" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133">
@@ -4092,19 +4092,19 @@
         <v>298</v>
       </c>
       <c r="C133" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D133" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E133" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F133" t="n">
         <v>525</v>
       </c>
       <c r="G133" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H133" t="n">
         <v>176</v>
@@ -4113,7 +4113,7 @@
         <v>244</v>
       </c>
       <c r="J133" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="134">
@@ -4132,16 +4132,16 @@
         <v>157</v>
       </c>
       <c r="E134" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F134" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G134" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H134" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I134" t="n">
         <v>258</v>
@@ -4160,10 +4160,10 @@
         <v>251</v>
       </c>
       <c r="C135" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D135" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E135" t="n">
         <v>137</v>
@@ -4178,7 +4178,7 @@
         <v>103</v>
       </c>
       <c r="I135" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J135" t="n">
         <v>336</v>
@@ -4191,13 +4191,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C136" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D136" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E136" t="n">
         <v>126</v>
@@ -4206,16 +4206,16 @@
         <v>407</v>
       </c>
       <c r="G136" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H136" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I136" t="n">
         <v>175</v>
       </c>
       <c r="J136" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137">
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C137" t="n">
         <v>153</v>
@@ -4237,7 +4237,7 @@
         <v>98</v>
       </c>
       <c r="F137" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G137" t="n">
         <v>223</v>
@@ -4262,25 +4262,25 @@
         <v>272</v>
       </c>
       <c r="C138" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D138" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E138" t="n">
         <v>147</v>
       </c>
       <c r="F138" t="n">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G138" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H138" t="n">
         <v>118</v>
       </c>
       <c r="I138" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J138" t="n">
         <v>261</v>
@@ -4296,16 +4296,16 @@
         <v>293</v>
       </c>
       <c r="C139" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D139" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E139" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F139" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G139" t="n">
         <v>385</v>
@@ -4317,7 +4317,7 @@
         <v>278</v>
       </c>
       <c r="J139" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="140">
@@ -4351,7 +4351,7 @@
         <v>252</v>
       </c>
       <c r="J140" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="141">
@@ -4379,10 +4379,10 @@
         <v>303</v>
       </c>
       <c r="H141" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I141" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J141" t="n">
         <v>383</v>
@@ -4401,7 +4401,7 @@
         <v>190</v>
       </c>
       <c r="D142" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E142" t="n">
         <v>95</v>
@@ -4416,7 +4416,7 @@
         <v>82</v>
       </c>
       <c r="I142" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J142" t="n">
         <v>268</v>
@@ -4432,19 +4432,19 @@
         <v>164</v>
       </c>
       <c r="C143" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D143" t="n">
         <v>65</v>
       </c>
       <c r="E143" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F143" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G143" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H143" t="n">
         <v>41</v>
@@ -4466,16 +4466,16 @@
         <v>145</v>
       </c>
       <c r="C144" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D144" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E144" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F144" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G144" t="n">
         <v>150</v>
@@ -4506,13 +4506,13 @@
         <v>58</v>
       </c>
       <c r="E145" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F145" t="n">
         <v>268</v>
       </c>
       <c r="G145" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H145" t="n">
         <v>61</v>
@@ -4521,7 +4521,7 @@
         <v>138</v>
       </c>
       <c r="J145" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146">
@@ -4543,16 +4543,16 @@
         <v>100</v>
       </c>
       <c r="F146" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G146" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H146" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I146" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J146" t="n">
         <v>232</v>
@@ -4568,7 +4568,7 @@
         <v>197</v>
       </c>
       <c r="C147" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D147" t="n">
         <v>84</v>
@@ -4580,13 +4580,13 @@
         <v>294</v>
       </c>
       <c r="G147" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H147" t="n">
         <v>104</v>
       </c>
       <c r="I147" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J147" t="n">
         <v>254</v>
@@ -4611,7 +4611,7 @@
         <v>49</v>
       </c>
       <c r="F148" t="n">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G148" t="n">
         <v>202</v>
@@ -4620,7 +4620,7 @@
         <v>115</v>
       </c>
       <c r="I148" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J148" t="n">
         <v>274</v>
@@ -4639,7 +4639,7 @@
         <v>160</v>
       </c>
       <c r="D149" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E149" t="n">
         <v>70</v>
@@ -4679,7 +4679,7 @@
         <v>47</v>
       </c>
       <c r="F150" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G150" t="n">
         <v>131</v>
@@ -4688,10 +4688,10 @@
         <v>51</v>
       </c>
       <c r="I150" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J150" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151">
@@ -4704,7 +4704,7 @@
         <v>149</v>
       </c>
       <c r="C151" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D151" t="n">
         <v>38</v>
@@ -4713,7 +4713,7 @@
         <v>46</v>
       </c>
       <c r="F151" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G151" t="n">
         <v>134</v>
@@ -4722,10 +4722,10 @@
         <v>62</v>
       </c>
       <c r="I151" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J151" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152">
@@ -4738,7 +4738,7 @@
         <v>217</v>
       </c>
       <c r="C152" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D152" t="n">
         <v>49</v>
@@ -4756,7 +4756,7 @@
         <v>51</v>
       </c>
       <c r="I152" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J152" t="n">
         <v>191</v>
@@ -4769,10 +4769,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C153" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D153" t="n">
         <v>49</v>
@@ -4781,16 +4781,16 @@
         <v>59</v>
       </c>
       <c r="F153" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G153" t="n">
         <v>221</v>
       </c>
       <c r="H153" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I153" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J153" t="n">
         <v>197</v>
@@ -4815,7 +4815,7 @@
         <v>51</v>
       </c>
       <c r="F154" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G154" t="n">
         <v>137</v>
@@ -4846,13 +4846,13 @@
         <v>57</v>
       </c>
       <c r="E155" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F155" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G155" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H155" t="n">
         <v>65</v>
@@ -4871,10 +4871,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C156" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D156" t="n">
         <v>47</v>
@@ -4917,7 +4917,7 @@
         <v>28</v>
       </c>
       <c r="F157" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G157" t="n">
         <v>85</v>
@@ -4939,7 +4939,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C158" t="n">
         <v>46</v>
@@ -4976,7 +4976,7 @@
         <v>173</v>
       </c>
       <c r="C159" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D159" t="n">
         <v>56</v>
@@ -4988,7 +4988,7 @@
         <v>165</v>
       </c>
       <c r="G159" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H159" t="n">
         <v>23</v>
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C160" t="n">
         <v>130</v>
@@ -5019,10 +5019,10 @@
         <v>40</v>
       </c>
       <c r="F160" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G160" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H160" t="n">
         <v>25</v>
@@ -5031,7 +5031,7 @@
         <v>101</v>
       </c>
       <c r="J160" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161">
@@ -5041,16 +5041,16 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C161" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D161" t="n">
         <v>53</v>
       </c>
       <c r="E161" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F161" t="n">
         <v>224</v>
@@ -5062,7 +5062,7 @@
         <v>31</v>
       </c>
       <c r="I161" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J161" t="n">
         <v>226</v>
@@ -5078,7 +5078,7 @@
         <v>182</v>
       </c>
       <c r="C162" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D162" t="n">
         <v>47</v>
@@ -5096,7 +5096,7 @@
         <v>25</v>
       </c>
       <c r="I162" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J162" t="n">
         <v>197</v>
@@ -5112,7 +5112,7 @@
         <v>174</v>
       </c>
       <c r="C163" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D163" t="n">
         <v>54</v>
@@ -5124,7 +5124,7 @@
         <v>168</v>
       </c>
       <c r="G163" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H163" t="n">
         <v>19</v>
@@ -5152,10 +5152,10 @@
         <v>39</v>
       </c>
       <c r="E164" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F164" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G164" t="n">
         <v>66</v>
@@ -5189,7 +5189,7 @@
         <v>31</v>
       </c>
       <c r="F165" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G165" t="n">
         <v>72</v>
@@ -5226,7 +5226,7 @@
         <v>163</v>
       </c>
       <c r="G166" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H166" t="n">
         <v>20</v>
@@ -5260,16 +5260,16 @@
         <v>211</v>
       </c>
       <c r="G167" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H167" t="n">
         <v>15</v>
       </c>
       <c r="I167" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J167" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="168">
@@ -5291,10 +5291,10 @@
         <v>19</v>
       </c>
       <c r="F168" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G168" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H168" t="n">
         <v>16</v>
@@ -5359,19 +5359,19 @@
         <v>14</v>
       </c>
       <c r="F170" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G170" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H170" t="n">
         <v>24</v>
       </c>
       <c r="I170" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J170" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="171">
@@ -5393,13 +5393,13 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G171" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H171" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I171" t="n">
         <v>48</v>
@@ -5415,7 +5415,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C172" t="n">
         <v>57</v>
@@ -5430,7 +5430,7 @@
         <v>99</v>
       </c>
       <c r="G172" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H172" t="n">
         <v>8</v>
@@ -5470,7 +5470,7 @@
         <v>19</v>
       </c>
       <c r="I173" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J173" t="n">
         <v>156</v>
@@ -5486,7 +5486,7 @@
         <v>169</v>
       </c>
       <c r="C174" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D174" t="n">
         <v>49</v>
@@ -5495,7 +5495,7 @@
         <v>26</v>
       </c>
       <c r="F174" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G174" t="n">
         <v>60</v>
@@ -5517,10 +5517,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C175" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D175" t="n">
         <v>46</v>
@@ -5538,10 +5538,10 @@
         <v>16</v>
       </c>
       <c r="I175" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J175" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="176">
@@ -5554,7 +5554,7 @@
         <v>125</v>
       </c>
       <c r="C176" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D176" t="n">
         <v>57</v>
@@ -5563,10 +5563,10 @@
         <v>12</v>
       </c>
       <c r="F176" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G176" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H176" t="n">
         <v>8</v>
@@ -5575,7 +5575,7 @@
         <v>56</v>
       </c>
       <c r="J176" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177">
@@ -5597,7 +5597,7 @@
         <v>8</v>
       </c>
       <c r="F177" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G177" t="n">
         <v>66</v>
@@ -5665,7 +5665,7 @@
         <v>9</v>
       </c>
       <c r="F179" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G179" t="n">
         <v>45</v>
@@ -5674,7 +5674,7 @@
         <v>11</v>
       </c>
       <c r="I179" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J179" t="n">
         <v>97</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C180" t="n">
         <v>49</v>
@@ -5702,7 +5702,7 @@
         <v>123</v>
       </c>
       <c r="G180" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H180" t="n">
         <v>16</v>
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C181" t="n">
         <v>34</v>
@@ -5733,7 +5733,7 @@
         <v>11</v>
       </c>
       <c r="F181" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G181" t="n">
         <v>57</v>
@@ -5761,22 +5761,22 @@
         <v>40</v>
       </c>
       <c r="D182" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
       </c>
       <c r="F182" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G182" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H182" t="n">
         <v>23</v>
       </c>
       <c r="I182" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J182" t="n">
         <v>132</v>
@@ -5792,16 +5792,16 @@
         <v>105</v>
       </c>
       <c r="C183" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D183" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E183" t="n">
         <v>9</v>
       </c>
       <c r="F183" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G183" t="n">
         <v>61</v>
@@ -5823,7 +5823,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C184" t="n">
         <v>60</v>
@@ -5835,7 +5835,7 @@
         <v>8</v>
       </c>
       <c r="F184" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G184" t="n">
         <v>61</v>
@@ -5847,7 +5847,7 @@
         <v>41</v>
       </c>
       <c r="J184" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="185">
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C185" t="n">
         <v>43</v>
@@ -5869,10 +5869,10 @@
         <v>9</v>
       </c>
       <c r="F185" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G185" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H185" t="n">
         <v>10</v>
@@ -5943,10 +5943,10 @@
         <v>45</v>
       </c>
       <c r="H187" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I187" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J187" t="n">
         <v>120</v>
@@ -5962,10 +5962,10 @@
         <v>108</v>
       </c>
       <c r="C188" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D188" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E188" t="n">
         <v>12</v>
@@ -5974,13 +5974,13 @@
         <v>94</v>
       </c>
       <c r="G188" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H188" t="n">
         <v>17</v>
       </c>
       <c r="I188" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J188" t="n">
         <v>103</v>
@@ -5996,7 +5996,7 @@
         <v>110</v>
       </c>
       <c r="C189" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D189" t="n">
         <v>57</v>
@@ -6005,7 +6005,7 @@
         <v>12</v>
       </c>
       <c r="F189" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G189" t="n">
         <v>82</v>
@@ -6014,7 +6014,7 @@
         <v>15</v>
       </c>
       <c r="I189" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J189" t="n">
         <v>126</v>
@@ -6030,7 +6030,7 @@
         <v>95</v>
       </c>
       <c r="C190" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D190" t="n">
         <v>54</v>
@@ -6039,19 +6039,19 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G190" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H190" t="n">
         <v>17</v>
       </c>
       <c r="I190" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J190" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="191">
@@ -6067,13 +6067,13 @@
         <v>50</v>
       </c>
       <c r="D191" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
       </c>
       <c r="F191" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G191" t="n">
         <v>76</v>
@@ -6082,7 +6082,7 @@
         <v>13</v>
       </c>
       <c r="I191" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J191" t="n">
         <v>92</v>
@@ -6095,16 +6095,16 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C192" t="n">
         <v>42</v>
       </c>
       <c r="D192" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E192" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F192" t="n">
         <v>77</v>
@@ -6135,19 +6135,19 @@
         <v>34</v>
       </c>
       <c r="D193" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E193" t="n">
         <v>3</v>
       </c>
       <c r="F193" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G193" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H193" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I193" t="n">
         <v>38</v>
@@ -6172,19 +6172,19 @@
         <v>85</v>
       </c>
       <c r="E194" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F194" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G194" t="n">
         <v>69</v>
       </c>
       <c r="H194" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I194" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J194" t="n">
         <v>135</v>
@@ -6209,16 +6209,16 @@
         <v>12</v>
       </c>
       <c r="F195" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G195" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H195" t="n">
         <v>19</v>
       </c>
       <c r="I195" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J195" t="n">
         <v>133</v>
@@ -6231,7 +6231,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C196" t="n">
         <v>55</v>
@@ -6243,7 +6243,7 @@
         <v>16</v>
       </c>
       <c r="F196" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G196" t="n">
         <v>63</v>
@@ -6252,7 +6252,7 @@
         <v>17</v>
       </c>
       <c r="I196" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J196" t="n">
         <v>119</v>
@@ -6280,10 +6280,10 @@
         <v>149</v>
       </c>
       <c r="G197" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H197" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I197" t="n">
         <v>65</v>
@@ -6311,16 +6311,16 @@
         <v>10</v>
       </c>
       <c r="F198" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G198" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H198" t="n">
         <v>20</v>
       </c>
       <c r="I198" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J198" t="n">
         <v>100</v>
@@ -6336,7 +6336,7 @@
         <v>63</v>
       </c>
       <c r="C199" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D199" t="n">
         <v>48</v>
@@ -6401,7 +6401,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C201" t="n">
         <v>81</v>
@@ -6419,7 +6419,7 @@
         <v>87</v>
       </c>
       <c r="H201" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I201" t="n">
         <v>83</v>
@@ -6447,7 +6447,7 @@
         <v>14</v>
       </c>
       <c r="F202" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G202" t="n">
         <v>77</v>
@@ -6459,7 +6459,7 @@
         <v>80</v>
       </c>
       <c r="J202" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="203">
@@ -6475,7 +6475,7 @@
         <v>54</v>
       </c>
       <c r="D203" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E203" t="n">
         <v>16</v>
@@ -6484,7 +6484,7 @@
         <v>208</v>
       </c>
       <c r="G203" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H203" t="n">
         <v>30</v>
@@ -6509,7 +6509,7 @@
         <v>51</v>
       </c>
       <c r="D204" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E204" t="n">
         <v>8</v>
@@ -6524,7 +6524,7 @@
         <v>39</v>
       </c>
       <c r="I204" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J204" t="n">
         <v>106</v>
@@ -6537,31 +6537,31 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C205" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D205" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E205" t="n">
         <v>7</v>
       </c>
       <c r="F205" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G205" t="n">
         <v>65</v>
       </c>
       <c r="H205" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I205" t="n">
         <v>78</v>
       </c>
       <c r="J205" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="206">
@@ -6577,7 +6577,7 @@
         <v>28</v>
       </c>
       <c r="D206" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -6589,7 +6589,7 @@
         <v>47</v>
       </c>
       <c r="H206" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I206" t="n">
         <v>67</v>
@@ -6608,16 +6608,16 @@
         <v>38</v>
       </c>
       <c r="C207" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D207" t="n">
         <v>65</v>
       </c>
       <c r="E207" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F207" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G207" t="n">
         <v>37</v>
@@ -6626,7 +6626,7 @@
         <v>20</v>
       </c>
       <c r="I207" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J207" t="n">
         <v>91</v>
@@ -6645,13 +6645,13 @@
         <v>65</v>
       </c>
       <c r="D208" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E208" t="n">
         <v>9</v>
       </c>
       <c r="F208" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G208" t="n">
         <v>85</v>
@@ -6673,13 +6673,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C209" t="n">
         <v>56</v>
       </c>
       <c r="D209" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -6688,13 +6688,13 @@
         <v>200</v>
       </c>
       <c r="G209" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H209" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I209" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J209" t="n">
         <v>149</v>
@@ -6713,22 +6713,22 @@
         <v>66</v>
       </c>
       <c r="D210" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E210" t="n">
         <v>21</v>
       </c>
       <c r="F210" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G210" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H210" t="n">
         <v>53</v>
       </c>
       <c r="I210" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J210" t="n">
         <v>163</v>
@@ -6741,19 +6741,19 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C211" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D211" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E211" t="n">
         <v>15</v>
       </c>
       <c r="F211" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G211" t="n">
         <v>63</v>
@@ -6778,7 +6778,7 @@
         <v>75</v>
       </c>
       <c r="C212" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D212" t="n">
         <v>73</v>
@@ -6787,7 +6787,7 @@
         <v>12</v>
       </c>
       <c r="F212" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G212" t="n">
         <v>41</v>
@@ -6849,19 +6849,19 @@
         <v>36</v>
       </c>
       <c r="D214" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E214" t="n">
         <v>16</v>
       </c>
       <c r="F214" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G214" t="n">
         <v>21</v>
       </c>
       <c r="H214" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I214" t="n">
         <v>42</v>
@@ -6889,16 +6889,16 @@
         <v>19</v>
       </c>
       <c r="F215" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G215" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H215" t="n">
         <v>43</v>
       </c>
       <c r="I215" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J215" t="n">
         <v>144</v>
@@ -6923,7 +6923,7 @@
         <v>20</v>
       </c>
       <c r="F216" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G216" t="n">
         <v>66</v>
@@ -6951,13 +6951,13 @@
         <v>53</v>
       </c>
       <c r="D217" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E217" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F217" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G217" t="n">
         <v>65</v>
@@ -6966,10 +6966,10 @@
         <v>40</v>
       </c>
       <c r="I217" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J217" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="218">
@@ -6982,16 +6982,16 @@
         <v>113</v>
       </c>
       <c r="C218" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D218" t="n">
         <v>104</v>
       </c>
       <c r="E218" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F218" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G218" t="n">
         <v>61</v>
@@ -7000,7 +7000,7 @@
         <v>45</v>
       </c>
       <c r="I218" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J218" t="n">
         <v>176</v>
@@ -7013,25 +7013,25 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C219" t="n">
         <v>70</v>
       </c>
       <c r="D219" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E219" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F219" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G219" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H219" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I219" t="n">
         <v>105</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C220" t="n">
         <v>44</v>
@@ -7059,7 +7059,7 @@
         <v>12</v>
       </c>
       <c r="F220" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G220" t="n">
         <v>31</v>
@@ -7093,7 +7093,7 @@
         <v>15</v>
       </c>
       <c r="F221" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G221" t="n">
         <v>29</v>
@@ -7127,16 +7127,16 @@
         <v>21</v>
       </c>
       <c r="F222" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G222" t="n">
         <v>113</v>
       </c>
       <c r="H222" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I222" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J222" t="n">
         <v>221</v>
@@ -7164,16 +7164,16 @@
         <v>309</v>
       </c>
       <c r="G223" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H223" t="n">
         <v>41</v>
       </c>
       <c r="I223" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J223" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="224">
@@ -7186,16 +7186,16 @@
         <v>119</v>
       </c>
       <c r="C224" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D224" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E224" t="n">
         <v>39</v>
       </c>
       <c r="F224" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G224" t="n">
         <v>83</v>
@@ -7204,7 +7204,7 @@
         <v>42</v>
       </c>
       <c r="I224" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J224" t="n">
         <v>171</v>
@@ -7229,10 +7229,10 @@
         <v>53</v>
       </c>
       <c r="F225" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G225" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H225" t="n">
         <v>53</v>
@@ -7254,16 +7254,16 @@
         <v>87</v>
       </c>
       <c r="C226" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D226" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E226" t="n">
         <v>31</v>
       </c>
       <c r="F226" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G226" t="n">
         <v>95</v>
@@ -7272,7 +7272,7 @@
         <v>55</v>
       </c>
       <c r="I226" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J226" t="n">
         <v>161</v>
@@ -7288,7 +7288,7 @@
         <v>55</v>
       </c>
       <c r="C227" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D227" t="n">
         <v>105</v>
@@ -7309,7 +7309,7 @@
         <v>96</v>
       </c>
       <c r="J227" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="228">
@@ -7325,7 +7325,7 @@
         <v>27</v>
       </c>
       <c r="D228" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E228" t="n">
         <v>11</v>
@@ -7340,7 +7340,7 @@
         <v>37</v>
       </c>
       <c r="I228" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J228" t="n">
         <v>79</v>
@@ -7356,16 +7356,16 @@
         <v>138</v>
       </c>
       <c r="C229" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D229" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E229" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F229" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G229" t="n">
         <v>109</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C230" t="n">
         <v>59</v>
@@ -7399,16 +7399,16 @@
         <v>36</v>
       </c>
       <c r="F230" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G230" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H230" t="n">
         <v>58</v>
       </c>
       <c r="I230" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J230" t="n">
         <v>122</v>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C231" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D231" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E231" t="n">
         <v>46</v>
@@ -7439,13 +7439,13 @@
         <v>115</v>
       </c>
       <c r="H231" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I231" t="n">
         <v>118</v>
       </c>
       <c r="J231" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="232">
@@ -7458,10 +7458,10 @@
         <v>100</v>
       </c>
       <c r="C232" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D232" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E232" t="n">
         <v>43</v>
@@ -7470,7 +7470,7 @@
         <v>224</v>
       </c>
       <c r="G232" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H232" t="n">
         <v>85</v>
@@ -7489,7 +7489,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C233" t="n">
         <v>63</v>
@@ -7513,7 +7513,7 @@
         <v>105</v>
       </c>
       <c r="J233" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="234">
@@ -7523,19 +7523,19 @@
         </is>
       </c>
       <c r="B234" t="n">
+        <v>49</v>
+      </c>
+      <c r="C234" t="n">
         <v>50</v>
       </c>
-      <c r="C234" t="n">
-        <v>48</v>
-      </c>
       <c r="D234" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E234" t="n">
         <v>33</v>
       </c>
       <c r="F234" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G234" t="n">
         <v>78</v>
@@ -7563,25 +7563,25 @@
         <v>52</v>
       </c>
       <c r="D235" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E235" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F235" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G235" t="n">
+        <v>84</v>
+      </c>
+      <c r="H235" t="n">
+        <v>41</v>
+      </c>
+      <c r="I235" t="n">
         <v>82</v>
       </c>
-      <c r="H235" t="n">
-        <v>39</v>
-      </c>
-      <c r="I235" t="n">
-        <v>80</v>
-      </c>
       <c r="J235" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="236">
@@ -7591,22 +7591,22 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C236" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D236" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E236" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F236" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G236" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H236" t="n">
         <v>49</v>
@@ -7625,31 +7625,31 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C237" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D237" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E237" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F237" t="n">
         <v>212</v>
       </c>
       <c r="G237" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H237" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I237" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J237" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="238">
@@ -7662,28 +7662,28 @@
         <v>91</v>
       </c>
       <c r="C238" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D238" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E238" t="n">
         <v>69</v>
       </c>
       <c r="F238" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G238" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H238" t="n">
         <v>62</v>
       </c>
       <c r="I238" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J238" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="239">
@@ -7696,7 +7696,7 @@
         <v>84</v>
       </c>
       <c r="C239" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D239" t="n">
         <v>229</v>
@@ -7705,19 +7705,19 @@
         <v>66</v>
       </c>
       <c r="F239" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G239" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H239" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I239" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J239" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="240">
@@ -7730,28 +7730,28 @@
         <v>96</v>
       </c>
       <c r="C240" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D240" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E240" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F240" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G240" t="n">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H240" t="n">
         <v>72</v>
       </c>
       <c r="I240" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J240" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="241">
@@ -7764,28 +7764,28 @@
         <v>49</v>
       </c>
       <c r="C241" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D241" t="n">
         <v>138</v>
       </c>
       <c r="E241" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F241" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G241" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H241" t="n">
         <v>50</v>
       </c>
       <c r="I241" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J241" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="242">
@@ -7795,31 +7795,31 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C242" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D242" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E242" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F242" t="n">
         <v>257</v>
       </c>
       <c r="G242" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H242" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I242" t="n">
         <v>94</v>
       </c>
       <c r="J242" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="243">
@@ -7829,31 +7829,31 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C243" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D243" t="n">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="E243" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F243" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="G243" t="n">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="H243" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I243" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="J243" t="n">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="244">
@@ -7863,31 +7863,31 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C244" t="n">
+        <v>123</v>
+      </c>
+      <c r="D244" t="n">
+        <v>311</v>
+      </c>
+      <c r="E244" t="n">
         <v>117</v>
       </c>
-      <c r="D244" t="n">
-        <v>297</v>
-      </c>
-      <c r="E244" t="n">
-        <v>115</v>
-      </c>
       <c r="F244" t="n">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="G244" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H244" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I244" t="n">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="J244" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="245">
@@ -7897,31 +7897,31 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C245" t="n">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="D245" t="n">
-        <v>255</v>
+        <v>333</v>
       </c>
       <c r="E245" t="n">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="F245" t="n">
-        <v>585</v>
+        <v>662</v>
       </c>
       <c r="G245" t="n">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="H245" t="n">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="I245" t="n">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="J245" t="n">
-        <v>327</v>
+        <v>369</v>
       </c>
     </row>
     <row r="246">
@@ -7931,31 +7931,31 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="C246" t="n">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="D246" t="n">
-        <v>220</v>
+        <v>348</v>
       </c>
       <c r="E246" t="n">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="F246" t="n">
-        <v>507</v>
+        <v>622</v>
       </c>
       <c r="G246" t="n">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="H246" t="n">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="I246" t="n">
-        <v>268</v>
+        <v>366</v>
       </c>
       <c r="J246" t="n">
-        <v>250</v>
+        <v>332</v>
       </c>
     </row>
     <row r="247">
@@ -7965,31 +7965,31 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="C247" t="n">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D247" t="n">
-        <v>230</v>
+        <v>356</v>
       </c>
       <c r="E247" t="n">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="F247" t="n">
-        <v>501</v>
+        <v>631</v>
       </c>
       <c r="G247" t="n">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="H247" t="n">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="I247" t="n">
-        <v>351</v>
+        <v>422</v>
       </c>
       <c r="J247" t="n">
-        <v>252</v>
+        <v>308</v>
       </c>
     </row>
     <row r="248">
@@ -7999,31 +7999,31 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="C248" t="n">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D248" t="n">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="E248" t="n">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="F248" t="n">
-        <v>237</v>
+        <v>533</v>
       </c>
       <c r="G248" t="n">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="H248" t="n">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="I248" t="n">
-        <v>145</v>
+        <v>314</v>
       </c>
       <c r="J248" t="n">
-        <v>117</v>
+        <v>307</v>
       </c>
     </row>
     <row r="249">
@@ -8033,31 +8033,31 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D249" t="n">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="I249" t="n">
-        <v>1</v>
+        <v>318</v>
       </c>
       <c r="J249" t="n">
-        <v>4</v>
+        <v>298</v>
       </c>
     </row>
     <row r="250">
@@ -8067,32 +8067,1238 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="J250" t="n">
-        <v>0</v>
-      </c>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>313</v>
+      </c>
+      <c r="C251" t="n">
+        <v>167</v>
+      </c>
+      <c r="D251" t="n">
+        <v>333</v>
+      </c>
+      <c r="E251" t="n">
+        <v>226</v>
+      </c>
+      <c r="F251" t="n">
+        <v>854</v>
+      </c>
+      <c r="G251" t="n">
+        <v>191</v>
+      </c>
+      <c r="H251" t="n">
+        <v>81</v>
+      </c>
+      <c r="I251" t="n">
+        <v>425</v>
+      </c>
+      <c r="J251" t="n">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-09</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>262</v>
+      </c>
+      <c r="C252" t="n">
+        <v>125</v>
+      </c>
+      <c r="D252" t="n">
+        <v>335</v>
+      </c>
+      <c r="E252" t="n">
+        <v>236</v>
+      </c>
+      <c r="F252" t="n">
+        <v>829</v>
+      </c>
+      <c r="G252" t="n">
+        <v>170</v>
+      </c>
+      <c r="H252" t="n">
+        <v>75</v>
+      </c>
+      <c r="I252" t="n">
+        <v>388</v>
+      </c>
+      <c r="J252" t="n">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>213</v>
+      </c>
+      <c r="C253" t="n">
+        <v>165</v>
+      </c>
+      <c r="D253" t="n">
+        <v>391</v>
+      </c>
+      <c r="E253" t="n">
+        <v>237</v>
+      </c>
+      <c r="F253" t="n">
+        <v>903</v>
+      </c>
+      <c r="G253" t="n">
+        <v>210</v>
+      </c>
+      <c r="H253" t="n">
+        <v>92</v>
+      </c>
+      <c r="I253" t="n">
+        <v>385</v>
+      </c>
+      <c r="J253" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>222</v>
+      </c>
+      <c r="C254" t="n">
+        <v>128</v>
+      </c>
+      <c r="D254" t="n">
+        <v>322</v>
+      </c>
+      <c r="E254" t="n">
+        <v>197</v>
+      </c>
+      <c r="F254" t="n">
+        <v>873</v>
+      </c>
+      <c r="G254" t="n">
+        <v>166</v>
+      </c>
+      <c r="H254" t="n">
+        <v>98</v>
+      </c>
+      <c r="I254" t="n">
+        <v>351</v>
+      </c>
+      <c r="J254" t="n">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-12</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>147</v>
+      </c>
+      <c r="C255" t="n">
+        <v>83</v>
+      </c>
+      <c r="D255" t="n">
+        <v>232</v>
+      </c>
+      <c r="E255" t="n">
+        <v>154</v>
+      </c>
+      <c r="F255" t="n">
+        <v>752</v>
+      </c>
+      <c r="G255" t="n">
+        <v>141</v>
+      </c>
+      <c r="H255" t="n">
+        <v>63</v>
+      </c>
+      <c r="I255" t="n">
+        <v>291</v>
+      </c>
+      <c r="J255" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>124</v>
+      </c>
+      <c r="C256" t="n">
+        <v>62</v>
+      </c>
+      <c r="D256" t="n">
+        <v>116</v>
+      </c>
+      <c r="E256" t="n">
+        <v>145</v>
+      </c>
+      <c r="F256" t="n">
+        <v>607</v>
+      </c>
+      <c r="G256" t="n">
+        <v>68</v>
+      </c>
+      <c r="H256" t="n">
+        <v>58</v>
+      </c>
+      <c r="I256" t="n">
+        <v>213</v>
+      </c>
+      <c r="J256" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>201</v>
+      </c>
+      <c r="C257" t="n">
+        <v>140</v>
+      </c>
+      <c r="D257" t="n">
+        <v>299</v>
+      </c>
+      <c r="E257" t="n">
+        <v>197</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1042</v>
+      </c>
+      <c r="G257" t="n">
+        <v>156</v>
+      </c>
+      <c r="H257" t="n">
+        <v>80</v>
+      </c>
+      <c r="I257" t="n">
+        <v>319</v>
+      </c>
+      <c r="J257" t="n">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-15</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>208</v>
+      </c>
+      <c r="C258" t="n">
+        <v>146</v>
+      </c>
+      <c r="D258" t="n">
+        <v>273</v>
+      </c>
+      <c r="E258" t="n">
+        <v>262</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1074</v>
+      </c>
+      <c r="G258" t="n">
+        <v>142</v>
+      </c>
+      <c r="H258" t="n">
+        <v>89</v>
+      </c>
+      <c r="I258" t="n">
+        <v>362</v>
+      </c>
+      <c r="J258" t="n">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>245</v>
+      </c>
+      <c r="C259" t="n">
+        <v>145</v>
+      </c>
+      <c r="D259" t="n">
+        <v>306</v>
+      </c>
+      <c r="E259" t="n">
+        <v>322</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1430</v>
+      </c>
+      <c r="G259" t="n">
+        <v>144</v>
+      </c>
+      <c r="H259" t="n">
+        <v>75</v>
+      </c>
+      <c r="I259" t="n">
+        <v>450</v>
+      </c>
+      <c r="J259" t="n">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-17</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>243</v>
+      </c>
+      <c r="C260" t="n">
+        <v>146</v>
+      </c>
+      <c r="D260" t="n">
+        <v>324</v>
+      </c>
+      <c r="E260" t="n">
+        <v>369</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1388</v>
+      </c>
+      <c r="G260" t="n">
+        <v>169</v>
+      </c>
+      <c r="H260" t="n">
+        <v>114</v>
+      </c>
+      <c r="I260" t="n">
+        <v>508</v>
+      </c>
+      <c r="J260" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>261</v>
+      </c>
+      <c r="C261" t="n">
+        <v>215</v>
+      </c>
+      <c r="D261" t="n">
+        <v>394</v>
+      </c>
+      <c r="E261" t="n">
+        <v>462</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1403</v>
+      </c>
+      <c r="G261" t="n">
+        <v>196</v>
+      </c>
+      <c r="H261" t="n">
+        <v>122</v>
+      </c>
+      <c r="I261" t="n">
+        <v>584</v>
+      </c>
+      <c r="J261" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-19</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>256</v>
+      </c>
+      <c r="C262" t="n">
+        <v>144</v>
+      </c>
+      <c r="D262" t="n">
+        <v>362</v>
+      </c>
+      <c r="E262" t="n">
+        <v>424</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1469</v>
+      </c>
+      <c r="G262" t="n">
+        <v>183</v>
+      </c>
+      <c r="H262" t="n">
+        <v>130</v>
+      </c>
+      <c r="I262" t="n">
+        <v>583</v>
+      </c>
+      <c r="J262" t="n">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-20</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>276</v>
+      </c>
+      <c r="C263" t="n">
+        <v>177</v>
+      </c>
+      <c r="D263" t="n">
+        <v>421</v>
+      </c>
+      <c r="E263" t="n">
+        <v>578</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1524</v>
+      </c>
+      <c r="G263" t="n">
+        <v>184</v>
+      </c>
+      <c r="H263" t="n">
+        <v>150</v>
+      </c>
+      <c r="I263" t="n">
+        <v>591</v>
+      </c>
+      <c r="J263" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-21</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>308</v>
+      </c>
+      <c r="C264" t="n">
+        <v>176</v>
+      </c>
+      <c r="D264" t="n">
+        <v>433</v>
+      </c>
+      <c r="E264" t="n">
+        <v>603</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1428</v>
+      </c>
+      <c r="G264" t="n">
+        <v>236</v>
+      </c>
+      <c r="H264" t="n">
+        <v>153</v>
+      </c>
+      <c r="I264" t="n">
+        <v>644</v>
+      </c>
+      <c r="J264" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-22</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>286</v>
+      </c>
+      <c r="C265" t="n">
+        <v>218</v>
+      </c>
+      <c r="D265" t="n">
+        <v>540</v>
+      </c>
+      <c r="E265" t="n">
+        <v>538</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1899</v>
+      </c>
+      <c r="G265" t="n">
+        <v>284</v>
+      </c>
+      <c r="H265" t="n">
+        <v>161</v>
+      </c>
+      <c r="I265" t="n">
+        <v>611</v>
+      </c>
+      <c r="J265" t="n">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-23</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>323</v>
+      </c>
+      <c r="C266" t="n">
+        <v>219</v>
+      </c>
+      <c r="D266" t="n">
+        <v>646</v>
+      </c>
+      <c r="E266" t="n">
+        <v>624</v>
+      </c>
+      <c r="F266" t="n">
+        <v>2031</v>
+      </c>
+      <c r="G266" t="n">
+        <v>281</v>
+      </c>
+      <c r="H266" t="n">
+        <v>183</v>
+      </c>
+      <c r="I266" t="n">
+        <v>695</v>
+      </c>
+      <c r="J266" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-24</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>350</v>
+      </c>
+      <c r="C267" t="n">
+        <v>241</v>
+      </c>
+      <c r="D267" t="n">
+        <v>607</v>
+      </c>
+      <c r="E267" t="n">
+        <v>704</v>
+      </c>
+      <c r="F267" t="n">
+        <v>2122</v>
+      </c>
+      <c r="G267" t="n">
+        <v>332</v>
+      </c>
+      <c r="H267" t="n">
+        <v>221</v>
+      </c>
+      <c r="I267" t="n">
+        <v>695</v>
+      </c>
+      <c r="J267" t="n">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-25</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>348</v>
+      </c>
+      <c r="C268" t="n">
+        <v>243</v>
+      </c>
+      <c r="D268" t="n">
+        <v>604</v>
+      </c>
+      <c r="E268" t="n">
+        <v>593</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2091</v>
+      </c>
+      <c r="G268" t="n">
+        <v>346</v>
+      </c>
+      <c r="H268" t="n">
+        <v>228</v>
+      </c>
+      <c r="I268" t="n">
+        <v>621</v>
+      </c>
+      <c r="J268" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-26</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>345</v>
+      </c>
+      <c r="C269" t="n">
+        <v>199</v>
+      </c>
+      <c r="D269" t="n">
+        <v>573</v>
+      </c>
+      <c r="E269" t="n">
+        <v>713</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1910</v>
+      </c>
+      <c r="G269" t="n">
+        <v>249</v>
+      </c>
+      <c r="H269" t="n">
+        <v>164</v>
+      </c>
+      <c r="I269" t="n">
+        <v>581</v>
+      </c>
+      <c r="J269" t="n">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-27</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>399</v>
+      </c>
+      <c r="C270" t="n">
+        <v>259</v>
+      </c>
+      <c r="D270" t="n">
+        <v>566</v>
+      </c>
+      <c r="E270" t="n">
+        <v>595</v>
+      </c>
+      <c r="F270" t="n">
+        <v>2123</v>
+      </c>
+      <c r="G270" t="n">
+        <v>315</v>
+      </c>
+      <c r="H270" t="n">
+        <v>143</v>
+      </c>
+      <c r="I270" t="n">
+        <v>521</v>
+      </c>
+      <c r="J270" t="n">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>580</v>
+      </c>
+      <c r="C271" t="n">
+        <v>364</v>
+      </c>
+      <c r="D271" t="n">
+        <v>791</v>
+      </c>
+      <c r="E271" t="n">
+        <v>903</v>
+      </c>
+      <c r="F271" t="n">
+        <v>2870</v>
+      </c>
+      <c r="G271" t="n">
+        <v>432</v>
+      </c>
+      <c r="H271" t="n">
+        <v>320</v>
+      </c>
+      <c r="I271" t="n">
+        <v>719</v>
+      </c>
+      <c r="J271" t="n">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-29</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>602</v>
+      </c>
+      <c r="C272" t="n">
+        <v>410</v>
+      </c>
+      <c r="D272" t="n">
+        <v>769</v>
+      </c>
+      <c r="E272" t="n">
+        <v>928</v>
+      </c>
+      <c r="F272" t="n">
+        <v>3013</v>
+      </c>
+      <c r="G272" t="n">
+        <v>436</v>
+      </c>
+      <c r="H272" t="n">
+        <v>292</v>
+      </c>
+      <c r="I272" t="n">
+        <v>747</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>879</v>
+      </c>
+      <c r="C273" t="n">
+        <v>422</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1088</v>
+      </c>
+      <c r="E273" t="n">
+        <v>886</v>
+      </c>
+      <c r="F273" t="n">
+        <v>3374</v>
+      </c>
+      <c r="G273" t="n">
+        <v>588</v>
+      </c>
+      <c r="H273" t="n">
+        <v>429</v>
+      </c>
+      <c r="I273" t="n">
+        <v>971</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-01</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>992</v>
+      </c>
+      <c r="C274" t="n">
+        <v>463</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1159</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1052</v>
+      </c>
+      <c r="F274" t="n">
+        <v>3475</v>
+      </c>
+      <c r="G274" t="n">
+        <v>644</v>
+      </c>
+      <c r="H274" t="n">
+        <v>431</v>
+      </c>
+      <c r="I274" t="n">
+        <v>897</v>
+      </c>
+      <c r="J274" t="n">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-02</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1161</v>
+      </c>
+      <c r="C275" t="n">
+        <v>514</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1137</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1081</v>
+      </c>
+      <c r="F275" t="n">
+        <v>3317</v>
+      </c>
+      <c r="G275" t="n">
+        <v>717</v>
+      </c>
+      <c r="H275" t="n">
+        <v>445</v>
+      </c>
+      <c r="I275" t="n">
+        <v>929</v>
+      </c>
+      <c r="J275" t="n">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-03</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>957</v>
+      </c>
+      <c r="C276" t="n">
+        <v>441</v>
+      </c>
+      <c r="D276" t="n">
+        <v>847</v>
+      </c>
+      <c r="E276" t="n">
+        <v>988</v>
+      </c>
+      <c r="F276" t="n">
+        <v>2908</v>
+      </c>
+      <c r="G276" t="n">
+        <v>648</v>
+      </c>
+      <c r="H276" t="n">
+        <v>390</v>
+      </c>
+      <c r="I276" t="n">
+        <v>756</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-04</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1065</v>
+      </c>
+      <c r="C277" t="n">
+        <v>463</v>
+      </c>
+      <c r="D277" t="n">
+        <v>909</v>
+      </c>
+      <c r="E277" t="n">
+        <v>997</v>
+      </c>
+      <c r="F277" t="n">
+        <v>2890</v>
+      </c>
+      <c r="G277" t="n">
+        <v>648</v>
+      </c>
+      <c r="H277" t="n">
+        <v>443</v>
+      </c>
+      <c r="I277" t="n">
+        <v>685</v>
+      </c>
+      <c r="J277" t="n">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-05</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1441</v>
+      </c>
+      <c r="C278" t="n">
+        <v>633</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1353</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1232</v>
+      </c>
+      <c r="F278" t="n">
+        <v>4259</v>
+      </c>
+      <c r="G278" t="n">
+        <v>872</v>
+      </c>
+      <c r="H278" t="n">
+        <v>613</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1167</v>
+      </c>
+      <c r="J278" t="n">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-06</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1438</v>
+      </c>
+      <c r="C279" t="n">
+        <v>656</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1263</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1259</v>
+      </c>
+      <c r="F279" t="n">
+        <v>4483</v>
+      </c>
+      <c r="G279" t="n">
+        <v>804</v>
+      </c>
+      <c r="H279" t="n">
+        <v>587</v>
+      </c>
+      <c r="I279" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J279" t="n">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-07</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C280" t="n">
+        <v>669</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1484</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1329</v>
+      </c>
+      <c r="F280" t="n">
+        <v>4267</v>
+      </c>
+      <c r="G280" t="n">
+        <v>1015</v>
+      </c>
+      <c r="H280" t="n">
+        <v>709</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1176</v>
+      </c>
+      <c r="J280" t="n">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-08</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1626</v>
+      </c>
+      <c r="C281" t="n">
+        <v>648</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1432</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1169</v>
+      </c>
+      <c r="F281" t="n">
+        <v>3897</v>
+      </c>
+      <c r="G281" t="n">
+        <v>1002</v>
+      </c>
+      <c r="H281" t="n">
+        <v>767</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1172</v>
+      </c>
+      <c r="J281" t="n">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>990</v>
+      </c>
+      <c r="C282" t="n">
+        <v>467</v>
+      </c>
+      <c r="D282" t="n">
+        <v>909</v>
+      </c>
+      <c r="E282" t="n">
+        <v>973</v>
+      </c>
+      <c r="F282" t="n">
+        <v>3076</v>
+      </c>
+      <c r="G282" t="n">
+        <v>609</v>
+      </c>
+      <c r="H282" t="n">
+        <v>505</v>
+      </c>
+      <c r="I282" t="n">
+        <v>980</v>
+      </c>
+      <c r="J282" t="n">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-10</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>704</v>
+      </c>
+      <c r="C283" t="n">
+        <v>138</v>
+      </c>
+      <c r="D283" t="n">
+        <v>181</v>
+      </c>
+      <c r="E283" t="n">
+        <v>674</v>
+      </c>
+      <c r="F283" t="n">
+        <v>2035</v>
+      </c>
+      <c r="G283" t="n">
+        <v>154</v>
+      </c>
+      <c r="H283" t="n">
+        <v>84</v>
+      </c>
+      <c r="I283" t="n">
+        <v>405</v>
+      </c>
+      <c r="J283" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-11</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>198</v>
+      </c>
+      <c r="C284" t="n">
+        <v>48</v>
+      </c>
+      <c r="D284" t="n">
+        <v>82</v>
+      </c>
+      <c r="E284" t="n">
+        <v>668</v>
+      </c>
+      <c r="F284" t="n">
+        <v>2235</v>
+      </c>
+      <c r="G284" t="n">
+        <v>88</v>
+      </c>
+      <c r="H284" t="n">
+        <v>62</v>
+      </c>
+      <c r="I284" t="n">
+        <v>268</v>
+      </c>
+      <c r="J284" t="n">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-12</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>13</v>
+      </c>
+      <c r="C285" t="n">
+        <v>12</v>
+      </c>
+      <c r="D285" t="n">
+        <v>7</v>
+      </c>
+      <c r="E285" t="n">
+        <v>6</v>
+      </c>
+      <c r="F285" t="n">
+        <v>19</v>
+      </c>
+      <c r="G285" t="n">
+        <v>7</v>
+      </c>
+      <c r="H285" t="n">
+        <v>4</v>
+      </c>
+      <c r="I285" t="n">
+        <v>11</v>
+      </c>
+      <c r="J285" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-13</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
